--- a/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,18</t>
+          <t>3,28; 7,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,23</t>
+          <t>3,62; 6,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,03</t>
+          <t>3,86; 5,96</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,58</t>
+          <t>2,6; 4,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,41</t>
+          <t>1,94; 3,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,69</t>
+          <t>2,49; 3,67</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,3</t>
+          <t>0,52; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,76</t>
+          <t>0,45; 1,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,65</t>
+          <t>0,56; 1,68</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,95</t>
+          <t>2,54; 3,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,47</t>
+          <t>2,55; 3,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,18</t>
+          <t>5,86; 10,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,11</t>
+          <t>5,56; 8,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,96</t>
+          <t>6,12; 8,54</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,57</t>
+          <t>3,32; 5,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,51</t>
+          <t>2,83; 4,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,67</t>
+          <t>3,26; 4,64</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,47</t>
+          <t>0,52; 2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,84</t>
+          <t>0,45; 1,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,68</t>
+          <t>0,68; 1,78</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,87</t>
+          <t>3,4; 5,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,41</t>
+          <t>3,24; 4,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,44</t>
+          <t>3,55; 4,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 10,45</t>
+          <t>5,31; 9,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,26</t>
+          <t>5,42; 8,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 8,54</t>
+          <t>5,83; 8,13</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,46</t>
+          <t>2,44; 4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,8</t>
+          <t>2,28; 4,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,64</t>
+          <t>2,65; 4,16</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,56</t>
+          <t>0,46; 2,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,78</t>
+          <t>0,45; 1,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,78</t>
+          <t>0,65; 1,68</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,07</t>
+          <t>2,73; 4,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,58</t>
+          <t>2,83; 4,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,58</t>
+          <t>3,08; 4,17</t>
         </is>
       </c>
     </row>
